--- a/Team-Data/2014-15/3-29-2014-15.xlsx
+++ b/Team-Data/2014-15/3-29-2014-15.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,7 +811,7 @@
         <v>5.1</v>
       </c>
       <c r="AD2" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AE2" t="n">
         <v>2</v>
@@ -756,7 +823,7 @@
         <v>2</v>
       </c>
       <c r="AH2" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AI2" t="n">
         <v>12</v>
@@ -768,10 +835,10 @@
         <v>3</v>
       </c>
       <c r="AL2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AM2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AN2" t="n">
         <v>2</v>
@@ -780,7 +847,7 @@
         <v>16</v>
       </c>
       <c r="AP2" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AQ2" t="n">
         <v>4</v>
@@ -789,7 +856,7 @@
         <v>30</v>
       </c>
       <c r="AS2" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AT2" t="n">
         <v>28</v>
@@ -807,7 +874,7 @@
         <v>13</v>
       </c>
       <c r="AY2" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AZ2" t="n">
         <v>1</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>3-29-2014-15</t>
+          <t>2015-03-29</t>
         </is>
       </c>
     </row>
@@ -848,16 +915,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E3" t="n">
         <v>32</v>
       </c>
       <c r="F3" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G3" t="n">
-        <v>0.438</v>
+        <v>0.444</v>
       </c>
       <c r="H3" t="n">
         <v>48.5</v>
@@ -875,19 +942,19 @@
         <v>8</v>
       </c>
       <c r="M3" t="n">
-        <v>24.5</v>
+        <v>24.4</v>
       </c>
       <c r="N3" t="n">
-        <v>0.327</v>
+        <v>0.328</v>
       </c>
       <c r="O3" t="n">
         <v>15.3</v>
       </c>
       <c r="P3" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.749</v>
+        <v>0.748</v>
       </c>
       <c r="R3" t="n">
         <v>11.2</v>
@@ -899,10 +966,10 @@
         <v>44.1</v>
       </c>
       <c r="U3" t="n">
-        <v>24.2</v>
+        <v>24.1</v>
       </c>
       <c r="V3" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="W3" t="n">
         <v>8</v>
@@ -914,31 +981,31 @@
         <v>5.3</v>
       </c>
       <c r="Z3" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="AA3" t="n">
         <v>18.7</v>
       </c>
       <c r="AB3" t="n">
-        <v>100.7</v>
+        <v>100.6</v>
       </c>
       <c r="AC3" t="n">
-        <v>-0.9</v>
+        <v>-0.8</v>
       </c>
       <c r="AD3" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="AE3" t="n">
         <v>18</v>
       </c>
       <c r="AF3" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AH3" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AI3" t="n">
         <v>6</v>
@@ -953,7 +1020,7 @@
         <v>13</v>
       </c>
       <c r="AM3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AN3" t="n">
         <v>26</v>
@@ -965,7 +1032,7 @@
         <v>27</v>
       </c>
       <c r="AQ3" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AR3" t="n">
         <v>11</v>
@@ -980,22 +1047,22 @@
         <v>5</v>
       </c>
       <c r="AV3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AW3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AX3" t="n">
+        <v>30</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>22</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>19</v>
+      </c>
+      <c r="BA3" t="n">
         <v>29</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>23</v>
-      </c>
-      <c r="AZ3" t="n">
-        <v>22</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>28</v>
       </c>
       <c r="BB3" t="n">
         <v>14</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>3-29-2014-15</t>
+          <t>2015-03-29</t>
         </is>
       </c>
     </row>
@@ -1030,25 +1097,25 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E4" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F4" t="n">
         <v>40</v>
       </c>
       <c r="G4" t="n">
-        <v>0.444</v>
+        <v>0.437</v>
       </c>
       <c r="H4" t="n">
         <v>48.7</v>
       </c>
       <c r="I4" t="n">
-        <v>37.2</v>
+        <v>37.1</v>
       </c>
       <c r="J4" t="n">
-        <v>82.8</v>
+        <v>82.7</v>
       </c>
       <c r="K4" t="n">
         <v>0.449</v>
@@ -1057,7 +1124,7 @@
         <v>6.5</v>
       </c>
       <c r="M4" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="N4" t="n">
         <v>0.324</v>
@@ -1075,19 +1142,19 @@
         <v>10.2</v>
       </c>
       <c r="S4" t="n">
-        <v>32.2</v>
+        <v>32.1</v>
       </c>
       <c r="T4" t="n">
         <v>42.3</v>
       </c>
       <c r="U4" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="V4" t="n">
-        <v>14.1</v>
+        <v>14.2</v>
       </c>
       <c r="W4" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="X4" t="n">
         <v>4.2</v>
@@ -1096,28 +1163,28 @@
         <v>4.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="AA4" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="AB4" t="n">
-        <v>97.5</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="AC4" t="n">
-        <v>-3.1</v>
+        <v>-3.3</v>
       </c>
       <c r="AD4" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AE4" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AF4" t="n">
         <v>18</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AH4" t="n">
         <v>2</v>
@@ -1126,7 +1193,7 @@
         <v>19</v>
       </c>
       <c r="AJ4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AK4" t="n">
         <v>16</v>
@@ -1138,46 +1205,46 @@
         <v>20</v>
       </c>
       <c r="AN4" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AO4" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP4" t="n">
         <v>17</v>
       </c>
       <c r="AQ4" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AR4" t="n">
         <v>24</v>
       </c>
       <c r="AS4" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AT4" t="n">
         <v>22</v>
       </c>
       <c r="AU4" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AV4" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AW4" t="n">
         <v>24</v>
       </c>
       <c r="AX4" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AY4" t="n">
         <v>10</v>
       </c>
       <c r="AZ4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BA4" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BB4" t="n">
         <v>23</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>3-29-2014-15</t>
+          <t>2015-03-29</t>
         </is>
       </c>
     </row>
@@ -1290,16 +1357,16 @@
         <v>-2.1</v>
       </c>
       <c r="AD5" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="AE5" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AF5" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AG5" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AH5" t="n">
         <v>5</v>
@@ -1323,13 +1390,13 @@
         <v>30</v>
       </c>
       <c r="AO5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP5" t="n">
         <v>14</v>
       </c>
       <c r="AQ5" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AR5" t="n">
         <v>25</v>
@@ -1341,7 +1408,7 @@
         <v>9</v>
       </c>
       <c r="AU5" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AV5" t="n">
         <v>1</v>
@@ -1353,10 +1420,10 @@
         <v>7</v>
       </c>
       <c r="AY5" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AZ5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BA5" t="n">
         <v>7</v>
@@ -1365,7 +1432,7 @@
         <v>26</v>
       </c>
       <c r="BC5" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BD5" t="n">
         <v>10</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>3-29-2014-15</t>
+          <t>2015-03-29</t>
         </is>
       </c>
     </row>
@@ -1472,7 +1539,7 @@
         <v>2.7</v>
       </c>
       <c r="AD6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE6" t="n">
         <v>9</v>
@@ -1484,7 +1551,7 @@
         <v>10</v>
       </c>
       <c r="AH6" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AI6" t="n">
         <v>22</v>
@@ -1514,7 +1581,7 @@
         <v>3</v>
       </c>
       <c r="AR6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AS6" t="n">
         <v>6</v>
@@ -1526,7 +1593,7 @@
         <v>13</v>
       </c>
       <c r="AV6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AW6" t="n">
         <v>29</v>
@@ -1535,7 +1602,7 @@
         <v>5</v>
       </c>
       <c r="AY6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AZ6" t="n">
         <v>3</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>3-29-2014-15</t>
+          <t>2015-03-29</t>
         </is>
       </c>
     </row>
@@ -1576,25 +1643,25 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E7" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F7" t="n">
         <v>27</v>
       </c>
       <c r="G7" t="n">
-        <v>0.64</v>
+        <v>0.635</v>
       </c>
       <c r="H7" t="n">
         <v>48.2</v>
       </c>
       <c r="I7" t="n">
-        <v>37.7</v>
+        <v>37.8</v>
       </c>
       <c r="J7" t="n">
-        <v>82.3</v>
+        <v>82.2</v>
       </c>
       <c r="K7" t="n">
         <v>0.459</v>
@@ -1609,25 +1676,25 @@
         <v>0.364</v>
       </c>
       <c r="O7" t="n">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="P7" t="n">
-        <v>23.8</v>
+        <v>23.9</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.757</v>
+        <v>0.758</v>
       </c>
       <c r="R7" t="n">
-        <v>11.1</v>
+        <v>11</v>
       </c>
       <c r="S7" t="n">
         <v>31.8</v>
       </c>
       <c r="T7" t="n">
-        <v>42.9</v>
+        <v>42.8</v>
       </c>
       <c r="U7" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="V7" t="n">
         <v>14</v>
@@ -1642,16 +1709,16 @@
         <v>4.7</v>
       </c>
       <c r="Z7" t="n">
-        <v>18.4</v>
+        <v>18.5</v>
       </c>
       <c r="AA7" t="n">
         <v>20.7</v>
       </c>
       <c r="AB7" t="n">
-        <v>103.3</v>
+        <v>103.6</v>
       </c>
       <c r="AC7" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="AD7" t="n">
         <v>1</v>
@@ -1663,10 +1730,10 @@
         <v>8</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AH7" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI7" t="n">
         <v>14</v>
@@ -1675,16 +1742,16 @@
         <v>24</v>
       </c>
       <c r="AK7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AL7" t="n">
         <v>6</v>
       </c>
       <c r="AM7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AN7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AO7" t="n">
         <v>6</v>
@@ -1696,19 +1763,19 @@
         <v>16</v>
       </c>
       <c r="AR7" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AS7" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AT7" t="n">
         <v>19</v>
       </c>
       <c r="AU7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AW7" t="n">
         <v>19</v>
@@ -1717,16 +1784,16 @@
         <v>26</v>
       </c>
       <c r="AY7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BA7" t="n">
         <v>10</v>
       </c>
       <c r="BB7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BC7" t="n">
         <v>5</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>3-29-2014-15</t>
+          <t>2015-03-29</t>
         </is>
       </c>
     </row>
@@ -1776,43 +1843,43 @@
         <v>39.3</v>
       </c>
       <c r="J8" t="n">
-        <v>85.59999999999999</v>
+        <v>85.40000000000001</v>
       </c>
       <c r="K8" t="n">
-        <v>0.459</v>
+        <v>0.46</v>
       </c>
       <c r="L8" t="n">
-        <v>9.1</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="M8" t="n">
-        <v>25.9</v>
+        <v>26</v>
       </c>
       <c r="N8" t="n">
         <v>0.352</v>
       </c>
       <c r="O8" t="n">
-        <v>16.4</v>
+        <v>16.5</v>
       </c>
       <c r="P8" t="n">
         <v>21.9</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.751</v>
+        <v>0.753</v>
       </c>
       <c r="R8" t="n">
         <v>10.5</v>
       </c>
       <c r="S8" t="n">
-        <v>31.7</v>
+        <v>31.6</v>
       </c>
       <c r="T8" t="n">
-        <v>42.2</v>
+        <v>42.1</v>
       </c>
       <c r="U8" t="n">
-        <v>22.4</v>
+        <v>22.3</v>
       </c>
       <c r="V8" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="W8" t="n">
         <v>8.300000000000001</v>
@@ -1821,10 +1888,10 @@
         <v>4.6</v>
       </c>
       <c r="Y8" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="Z8" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="AA8" t="n">
         <v>21.9</v>
@@ -1836,7 +1903,7 @@
         <v>3.3</v>
       </c>
       <c r="AD8" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AE8" t="n">
         <v>9</v>
@@ -1848,7 +1915,7 @@
         <v>9</v>
       </c>
       <c r="AH8" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AI8" t="n">
         <v>3</v>
@@ -1863,7 +1930,7 @@
         <v>7</v>
       </c>
       <c r="AM8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AN8" t="n">
         <v>11</v>
@@ -1872,7 +1939,7 @@
         <v>21</v>
       </c>
       <c r="AP8" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AQ8" t="n">
         <v>17</v>
@@ -1881,13 +1948,13 @@
         <v>19</v>
       </c>
       <c r="AS8" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AT8" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AU8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AV8" t="n">
         <v>4</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>3-29-2014-15</t>
+          <t>2015-03-29</t>
         </is>
       </c>
     </row>
@@ -2018,7 +2085,7 @@
         <v>-3.3</v>
       </c>
       <c r="AD9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE9" t="n">
         <v>23</v>
@@ -2030,10 +2097,10 @@
         <v>24</v>
       </c>
       <c r="AH9" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AI9" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AJ9" t="n">
         <v>3</v>
@@ -2045,13 +2112,13 @@
         <v>14</v>
       </c>
       <c r="AM9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AN9" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AO9" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AP9" t="n">
         <v>7</v>
@@ -2063,7 +2130,7 @@
         <v>3</v>
       </c>
       <c r="AS9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AT9" t="n">
         <v>5</v>
@@ -2072,7 +2139,7 @@
         <v>16</v>
       </c>
       <c r="AV9" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AW9" t="n">
         <v>15</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>3-29-2014-15</t>
+          <t>2015-03-29</t>
         </is>
       </c>
     </row>
@@ -2122,16 +2189,16 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E10" t="n">
         <v>28</v>
       </c>
       <c r="F10" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G10" t="n">
-        <v>0.384</v>
+        <v>0.389</v>
       </c>
       <c r="H10" t="n">
         <v>48.4</v>
@@ -2140,10 +2207,10 @@
         <v>36.9</v>
       </c>
       <c r="J10" t="n">
-        <v>86.3</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="K10" t="n">
-        <v>0.428</v>
+        <v>0.427</v>
       </c>
       <c r="L10" t="n">
         <v>8.4</v>
@@ -2161,22 +2228,22 @@
         <v>22.8</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.706</v>
+        <v>0.707</v>
       </c>
       <c r="R10" t="n">
         <v>13</v>
       </c>
       <c r="S10" t="n">
-        <v>32.2</v>
+        <v>32.3</v>
       </c>
       <c r="T10" t="n">
-        <v>45.2</v>
+        <v>45.3</v>
       </c>
       <c r="U10" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="V10" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="W10" t="n">
         <v>7.6</v>
@@ -2191,16 +2258,16 @@
         <v>19</v>
       </c>
       <c r="AA10" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="AB10" t="n">
-        <v>98.40000000000001</v>
+        <v>98.3</v>
       </c>
       <c r="AC10" t="n">
         <v>-1.3</v>
       </c>
       <c r="AD10" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="AE10" t="n">
         <v>23</v>
@@ -2221,7 +2288,7 @@
         <v>4</v>
       </c>
       <c r="AK10" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AL10" t="n">
         <v>10</v>
@@ -2233,7 +2300,7 @@
         <v>23</v>
       </c>
       <c r="AO10" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AP10" t="n">
         <v>16</v>
@@ -2245,7 +2312,7 @@
         <v>1</v>
       </c>
       <c r="AS10" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AT10" t="n">
         <v>4</v>
@@ -2263,7 +2330,7 @@
         <v>16</v>
       </c>
       <c r="AY10" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AZ10" t="n">
         <v>7</v>
@@ -2272,7 +2339,7 @@
         <v>22</v>
       </c>
       <c r="BB10" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BC10" t="n">
         <v>20</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>3-29-2014-15</t>
+          <t>2015-03-29</t>
         </is>
       </c>
     </row>
@@ -2382,7 +2449,7 @@
         <v>10.9</v>
       </c>
       <c r="AD11" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AE11" t="n">
         <v>1</v>
@@ -2394,7 +2461,7 @@
         <v>1</v>
       </c>
       <c r="AH11" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AI11" t="n">
         <v>1</v>
@@ -2409,13 +2476,13 @@
         <v>2</v>
       </c>
       <c r="AM11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AN11" t="n">
         <v>1</v>
       </c>
       <c r="AO11" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AP11" t="n">
         <v>26</v>
@@ -2439,7 +2506,7 @@
         <v>19</v>
       </c>
       <c r="AW11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AX11" t="n">
         <v>1</v>
@@ -2448,7 +2515,7 @@
         <v>2</v>
       </c>
       <c r="AZ11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BA11" t="n">
         <v>27</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>3-29-2014-15</t>
+          <t>2015-03-29</t>
         </is>
       </c>
     </row>
@@ -2501,10 +2568,10 @@
         <v>48.3</v>
       </c>
       <c r="I12" t="n">
-        <v>37.1</v>
+        <v>37</v>
       </c>
       <c r="J12" t="n">
-        <v>83.90000000000001</v>
+        <v>83.8</v>
       </c>
       <c r="K12" t="n">
         <v>0.441</v>
@@ -2516,13 +2583,13 @@
         <v>33.2</v>
       </c>
       <c r="N12" t="n">
-        <v>0.346</v>
+        <v>0.347</v>
       </c>
       <c r="O12" t="n">
-        <v>17.8</v>
+        <v>17.9</v>
       </c>
       <c r="P12" t="n">
-        <v>24.4</v>
+        <v>24.7</v>
       </c>
       <c r="Q12" t="n">
         <v>0.726</v>
@@ -2534,13 +2601,13 @@
         <v>31.8</v>
       </c>
       <c r="T12" t="n">
-        <v>43.6</v>
+        <v>43.5</v>
       </c>
       <c r="U12" t="n">
         <v>22.3</v>
       </c>
       <c r="V12" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="W12" t="n">
         <v>9.5</v>
@@ -2552,19 +2619,19 @@
         <v>5.4</v>
       </c>
       <c r="Z12" t="n">
-        <v>22.1</v>
+        <v>22.2</v>
       </c>
       <c r="AA12" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="AB12" t="n">
-        <v>103.3</v>
+        <v>103.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="AD12" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="AE12" t="n">
         <v>4</v>
@@ -2573,7 +2640,7 @@
         <v>3</v>
       </c>
       <c r="AG12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH12" t="n">
         <v>19</v>
@@ -2594,10 +2661,10 @@
         <v>1</v>
       </c>
       <c r="AN12" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AO12" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AP12" t="n">
         <v>6</v>
@@ -2612,31 +2679,31 @@
         <v>21</v>
       </c>
       <c r="AT12" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AU12" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AV12" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AW12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AX12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AY12" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AZ12" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BA12" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BB12" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BC12" t="n">
         <v>8</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>3-29-2014-15</t>
+          <t>2015-03-29</t>
         </is>
       </c>
     </row>
@@ -2668,16 +2735,16 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E13" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F13" t="n">
         <v>41</v>
       </c>
       <c r="G13" t="n">
-        <v>0.438</v>
+        <v>0.431</v>
       </c>
       <c r="H13" t="n">
         <v>48.3</v>
@@ -2686,19 +2753,19 @@
         <v>36.5</v>
       </c>
       <c r="J13" t="n">
-        <v>83.2</v>
+        <v>83.3</v>
       </c>
       <c r="K13" t="n">
-        <v>0.439</v>
+        <v>0.438</v>
       </c>
       <c r="L13" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="M13" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="N13" t="n">
-        <v>0.344</v>
+        <v>0.341</v>
       </c>
       <c r="O13" t="n">
         <v>16.7</v>
@@ -2707,22 +2774,22 @@
         <v>21.9</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.761</v>
+        <v>0.762</v>
       </c>
       <c r="R13" t="n">
-        <v>10.3</v>
+        <v>10.4</v>
       </c>
       <c r="S13" t="n">
-        <v>34.3</v>
+        <v>34.2</v>
       </c>
       <c r="T13" t="n">
-        <v>44.5</v>
+        <v>44.6</v>
       </c>
       <c r="U13" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="V13" t="n">
-        <v>14.1</v>
+        <v>14</v>
       </c>
       <c r="W13" t="n">
         <v>6.2</v>
@@ -2731,34 +2798,34 @@
         <v>4.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Z13" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="AA13" t="n">
         <v>21.3</v>
       </c>
       <c r="AB13" t="n">
-        <v>96.90000000000001</v>
+        <v>96.8</v>
       </c>
       <c r="AC13" t="n">
-        <v>-0.3</v>
+        <v>-0.4</v>
       </c>
       <c r="AD13" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="AE13" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AF13" t="n">
+        <v>20</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH13" t="n">
         <v>19</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>19</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>20</v>
       </c>
       <c r="AI13" t="n">
         <v>24</v>
@@ -2767,25 +2834,25 @@
         <v>16</v>
       </c>
       <c r="AK13" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AL13" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AM13" t="n">
         <v>18</v>
       </c>
       <c r="AN13" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AO13" t="n">
         <v>17</v>
       </c>
       <c r="AP13" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AQ13" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AR13" t="n">
         <v>21</v>
@@ -2809,19 +2876,19 @@
         <v>21</v>
       </c>
       <c r="AY13" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AZ13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BA13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BB13" t="n">
         <v>24</v>
       </c>
       <c r="BC13" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BD13" t="n">
         <v>10</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>3-29-2014-15</t>
+          <t>2015-03-29</t>
         </is>
       </c>
     </row>
@@ -2850,16 +2917,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E14" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F14" t="n">
         <v>25</v>
       </c>
       <c r="G14" t="n">
-        <v>0.662</v>
+        <v>0.658</v>
       </c>
       <c r="H14" t="n">
         <v>48.1</v>
@@ -2877,28 +2944,28 @@
         <v>10</v>
       </c>
       <c r="M14" t="n">
-        <v>26.8</v>
+        <v>26.7</v>
       </c>
       <c r="N14" t="n">
         <v>0.375</v>
       </c>
       <c r="O14" t="n">
-        <v>17.6</v>
+        <v>17.5</v>
       </c>
       <c r="P14" t="n">
-        <v>24.9</v>
+        <v>24.7</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.708</v>
+        <v>0.71</v>
       </c>
       <c r="R14" t="n">
         <v>9.5</v>
       </c>
       <c r="S14" t="n">
-        <v>33</v>
+        <v>32.9</v>
       </c>
       <c r="T14" t="n">
-        <v>42.5</v>
+        <v>42.4</v>
       </c>
       <c r="U14" t="n">
         <v>24.7</v>
@@ -2919,19 +2986,19 @@
         <v>21.3</v>
       </c>
       <c r="AA14" t="n">
-        <v>21.5</v>
+        <v>21.3</v>
       </c>
       <c r="AB14" t="n">
-        <v>106.6</v>
+        <v>106.4</v>
       </c>
       <c r="AC14" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="AD14" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AE14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AF14" t="n">
         <v>5</v>
@@ -2940,7 +3007,7 @@
         <v>5</v>
       </c>
       <c r="AH14" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AI14" t="n">
         <v>2</v>
@@ -2952,7 +3019,7 @@
         <v>2</v>
       </c>
       <c r="AL14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AM14" t="n">
         <v>5</v>
@@ -2961,10 +3028,10 @@
         <v>3</v>
       </c>
       <c r="AO14" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AQ14" t="n">
         <v>28</v>
@@ -2976,7 +3043,7 @@
         <v>10</v>
       </c>
       <c r="AT14" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AU14" t="n">
         <v>3</v>
@@ -2985,7 +3052,7 @@
         <v>2</v>
       </c>
       <c r="AW14" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AX14" t="n">
         <v>10</v>
@@ -2997,7 +3064,7 @@
         <v>23</v>
       </c>
       <c r="BA14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BB14" t="n">
         <v>2</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>3-29-2014-15</t>
+          <t>2015-03-29</t>
         </is>
       </c>
     </row>
@@ -3047,43 +3114,43 @@
         <v>48.6</v>
       </c>
       <c r="I15" t="n">
-        <v>37.6</v>
+        <v>37.4</v>
       </c>
       <c r="J15" t="n">
-        <v>86</v>
+        <v>85.90000000000001</v>
       </c>
       <c r="K15" t="n">
-        <v>0.437</v>
+        <v>0.435</v>
       </c>
       <c r="L15" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="M15" t="n">
-        <v>18.9</v>
+        <v>18.8</v>
       </c>
       <c r="N15" t="n">
         <v>0.342</v>
       </c>
       <c r="O15" t="n">
-        <v>17.3</v>
+        <v>17.6</v>
       </c>
       <c r="P15" t="n">
-        <v>23.2</v>
+        <v>23.6</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.745</v>
+        <v>0.746</v>
       </c>
       <c r="R15" t="n">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="S15" t="n">
-        <v>32.6</v>
+        <v>32.4</v>
       </c>
       <c r="T15" t="n">
-        <v>44.2</v>
+        <v>44.1</v>
       </c>
       <c r="U15" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="V15" t="n">
         <v>13.2</v>
@@ -3098,25 +3165,25 @@
         <v>4.8</v>
       </c>
       <c r="Z15" t="n">
-        <v>21.1</v>
+        <v>21.3</v>
       </c>
       <c r="AA15" t="n">
-        <v>19.3</v>
+        <v>19.6</v>
       </c>
       <c r="AB15" t="n">
-        <v>98.90000000000001</v>
+        <v>98.7</v>
       </c>
       <c r="AC15" t="n">
-        <v>-5.7</v>
+        <v>-5.8</v>
       </c>
       <c r="AD15" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AE15" t="n">
         <v>27</v>
       </c>
       <c r="AF15" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AG15" t="n">
         <v>27</v>
@@ -3125,7 +3192,7 @@
         <v>4</v>
       </c>
       <c r="AI15" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AJ15" t="n">
         <v>7</v>
@@ -3140,46 +3207,46 @@
         <v>24</v>
       </c>
       <c r="AN15" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AO15" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AP15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AQ15" t="n">
         <v>21</v>
       </c>
       <c r="AR15" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AS15" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AT15" t="n">
         <v>11</v>
       </c>
       <c r="AU15" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AV15" t="n">
         <v>5</v>
       </c>
       <c r="AW15" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AX15" t="n">
         <v>20</v>
       </c>
       <c r="AY15" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AZ15" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="BA15" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BB15" t="n">
         <v>17</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>3-29-2014-15</t>
+          <t>2015-03-29</t>
         </is>
       </c>
     </row>
@@ -3214,16 +3281,16 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E16" t="n">
         <v>50</v>
       </c>
       <c r="F16" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G16" t="n">
-        <v>0.676</v>
+        <v>0.6850000000000001</v>
       </c>
       <c r="H16" t="n">
         <v>48.6</v>
@@ -3244,34 +3311,34 @@
         <v>15.2</v>
       </c>
       <c r="N16" t="n">
-        <v>0.346</v>
+        <v>0.345</v>
       </c>
       <c r="O16" t="n">
-        <v>17.8</v>
+        <v>17.9</v>
       </c>
       <c r="P16" t="n">
-        <v>22.9</v>
+        <v>23.1</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.776</v>
+        <v>0.775</v>
       </c>
       <c r="R16" t="n">
-        <v>10.3</v>
+        <v>10.4</v>
       </c>
       <c r="S16" t="n">
         <v>32.1</v>
       </c>
       <c r="T16" t="n">
-        <v>42.4</v>
+        <v>42.5</v>
       </c>
       <c r="U16" t="n">
         <v>21.7</v>
       </c>
       <c r="V16" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="W16" t="n">
-        <v>8.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="X16" t="n">
         <v>4.2</v>
@@ -3283,25 +3350,25 @@
         <v>19.1</v>
       </c>
       <c r="AA16" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="AB16" t="n">
-        <v>98.59999999999999</v>
+        <v>98.7</v>
       </c>
       <c r="AC16" t="n">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="AD16" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AE16" t="n">
         <v>3</v>
       </c>
       <c r="AF16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AG16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AH16" t="n">
         <v>6</v>
@@ -3310,10 +3377,10 @@
         <v>13</v>
       </c>
       <c r="AJ16" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AK16" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AL16" t="n">
         <v>29</v>
@@ -3322,10 +3389,10 @@
         <v>29</v>
       </c>
       <c r="AN16" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AO16" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AP16" t="n">
         <v>15</v>
@@ -3340,22 +3407,22 @@
         <v>17</v>
       </c>
       <c r="AT16" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AU16" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AV16" t="n">
         <v>7</v>
       </c>
       <c r="AW16" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AX16" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AY16" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AZ16" t="n">
         <v>8</v>
@@ -3367,7 +3434,7 @@
         <v>18</v>
       </c>
       <c r="BC16" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BD16" t="n">
         <v>10</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>3-29-2014-15</t>
+          <t>2015-03-29</t>
         </is>
       </c>
     </row>
@@ -3396,16 +3463,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E17" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F17" t="n">
         <v>39</v>
       </c>
       <c r="G17" t="n">
-        <v>0.466</v>
+        <v>0.458</v>
       </c>
       <c r="H17" t="n">
         <v>48.1</v>
@@ -3429,13 +3496,13 @@
         <v>0.341</v>
       </c>
       <c r="O17" t="n">
-        <v>17.7</v>
+        <v>17.6</v>
       </c>
       <c r="P17" t="n">
         <v>23.8</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.743</v>
+        <v>0.741</v>
       </c>
       <c r="R17" t="n">
         <v>8.9</v>
@@ -3444,16 +3511,16 @@
         <v>29.9</v>
       </c>
       <c r="T17" t="n">
-        <v>38.9</v>
+        <v>38.8</v>
       </c>
       <c r="U17" t="n">
         <v>20.1</v>
       </c>
       <c r="V17" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="W17" t="n">
-        <v>8.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="X17" t="n">
         <v>4.4</v>
@@ -3468,13 +3535,13 @@
         <v>20.8</v>
       </c>
       <c r="AB17" t="n">
-        <v>94.7</v>
+        <v>94.5</v>
       </c>
       <c r="AC17" t="n">
-        <v>-2.1</v>
+        <v>-2.2</v>
       </c>
       <c r="AD17" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="AE17" t="n">
         <v>17</v>
@@ -3495,7 +3562,7 @@
         <v>30</v>
       </c>
       <c r="AK17" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AL17" t="n">
         <v>20</v>
@@ -3504,7 +3571,7 @@
         <v>19</v>
       </c>
       <c r="AN17" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AO17" t="n">
         <v>10</v>
@@ -3528,7 +3595,7 @@
         <v>28</v>
       </c>
       <c r="AV17" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AW17" t="n">
         <v>10</v>
@@ -3537,7 +3604,7 @@
         <v>22</v>
       </c>
       <c r="AY17" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ17" t="n">
         <v>15</v>
@@ -3546,10 +3613,10 @@
         <v>8</v>
       </c>
       <c r="BB17" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BC17" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>3-29-2014-15</t>
+          <t>2015-03-29</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>0.2</v>
       </c>
       <c r="AD18" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AE18" t="n">
         <v>16</v>
@@ -3677,7 +3744,7 @@
         <v>26</v>
       </c>
       <c r="AK18" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AL18" t="n">
         <v>23</v>
@@ -3686,7 +3753,7 @@
         <v>26</v>
       </c>
       <c r="AN18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AO18" t="n">
         <v>22</v>
@@ -3704,16 +3771,16 @@
         <v>25</v>
       </c>
       <c r="AT18" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AU18" t="n">
         <v>7</v>
       </c>
       <c r="AV18" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AW18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX18" t="n">
         <v>9</v>
@@ -3722,7 +3789,7 @@
         <v>14</v>
       </c>
       <c r="AZ18" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BA18" t="n">
         <v>18</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>3-29-2014-15</t>
+          <t>2015-03-29</t>
         </is>
       </c>
     </row>
@@ -3760,37 +3827,37 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E19" t="n">
         <v>16</v>
       </c>
       <c r="F19" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G19" t="n">
-        <v>0.219</v>
+        <v>0.222</v>
       </c>
       <c r="H19" t="n">
         <v>48.3</v>
       </c>
       <c r="I19" t="n">
-        <v>36.6</v>
+        <v>36.7</v>
       </c>
       <c r="J19" t="n">
-        <v>83.7</v>
+        <v>83.8</v>
       </c>
       <c r="K19" t="n">
         <v>0.438</v>
       </c>
       <c r="L19" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="M19" t="n">
         <v>14.8</v>
       </c>
       <c r="N19" t="n">
-        <v>0.334</v>
+        <v>0.336</v>
       </c>
       <c r="O19" t="n">
         <v>19.7</v>
@@ -3799,31 +3866,31 @@
         <v>25.5</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.774</v>
+        <v>0.772</v>
       </c>
       <c r="R19" t="n">
         <v>11.9</v>
       </c>
       <c r="S19" t="n">
-        <v>29.5</v>
+        <v>29.6</v>
       </c>
       <c r="T19" t="n">
         <v>41.5</v>
       </c>
       <c r="U19" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="V19" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="W19" t="n">
-        <v>8.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="X19" t="n">
         <v>3.9</v>
       </c>
       <c r="Y19" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="Z19" t="n">
         <v>19.1</v>
@@ -3832,13 +3899,13 @@
         <v>21.3</v>
       </c>
       <c r="AB19" t="n">
-        <v>97.90000000000001</v>
+        <v>98</v>
       </c>
       <c r="AC19" t="n">
-        <v>-8.1</v>
+        <v>-7.9</v>
       </c>
       <c r="AD19" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="AE19" t="n">
         <v>29</v>
@@ -3850,16 +3917,16 @@
         <v>29</v>
       </c>
       <c r="AH19" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AI19" t="n">
         <v>23</v>
       </c>
       <c r="AJ19" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK19" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AL19" t="n">
         <v>30</v>
@@ -3868,7 +3935,7 @@
         <v>30</v>
       </c>
       <c r="AN19" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AO19" t="n">
         <v>3</v>
@@ -3889,10 +3956,10 @@
         <v>25</v>
       </c>
       <c r="AU19" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AV19" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AW19" t="n">
         <v>9</v>
@@ -3904,10 +3971,10 @@
         <v>27</v>
       </c>
       <c r="AZ19" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BB19" t="n">
         <v>21</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>3-29-2014-15</t>
+          <t>2015-03-29</t>
         </is>
       </c>
     </row>
@@ -3960,10 +4027,10 @@
         <v>37.8</v>
       </c>
       <c r="J20" t="n">
-        <v>82.5</v>
+        <v>82.8</v>
       </c>
       <c r="K20" t="n">
-        <v>0.459</v>
+        <v>0.456</v>
       </c>
       <c r="L20" t="n">
         <v>7.1</v>
@@ -3972,55 +4039,55 @@
         <v>19.3</v>
       </c>
       <c r="N20" t="n">
-        <v>0.367</v>
+        <v>0.365</v>
       </c>
       <c r="O20" t="n">
-        <v>16.6</v>
+        <v>16.5</v>
       </c>
       <c r="P20" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.764</v>
+        <v>0.758</v>
       </c>
       <c r="R20" t="n">
-        <v>11.3</v>
+        <v>11.6</v>
       </c>
       <c r="S20" t="n">
-        <v>32</v>
+        <v>32.1</v>
       </c>
       <c r="T20" t="n">
-        <v>43.4</v>
+        <v>43.8</v>
       </c>
       <c r="U20" t="n">
-        <v>22.1</v>
+        <v>22</v>
       </c>
       <c r="V20" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="W20" t="n">
         <v>6.7</v>
       </c>
       <c r="X20" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="Y20" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="Z20" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="AA20" t="n">
         <v>18.7</v>
       </c>
-      <c r="AA20" t="n">
-        <v>18.6</v>
-      </c>
       <c r="AB20" t="n">
-        <v>99.3</v>
+        <v>99.2</v>
       </c>
       <c r="AC20" t="n">
         <v>0.5</v>
       </c>
       <c r="AD20" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="AE20" t="n">
         <v>14</v>
@@ -4038,10 +4105,10 @@
         <v>11</v>
       </c>
       <c r="AJ20" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AK20" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AL20" t="n">
         <v>19</v>
@@ -4050,28 +4117,28 @@
         <v>23</v>
       </c>
       <c r="AN20" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AO20" t="n">
         <v>20</v>
       </c>
       <c r="AP20" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ20" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AR20" t="n">
         <v>10</v>
       </c>
       <c r="AS20" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AT20" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AU20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AV20" t="n">
         <v>8</v>
@@ -4089,13 +4156,13 @@
         <v>6</v>
       </c>
       <c r="BA20" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BB20" t="n">
         <v>16</v>
       </c>
       <c r="BC20" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>3-29-2014-15</t>
+          <t>2015-03-29</t>
         </is>
       </c>
     </row>
@@ -4202,7 +4269,7 @@
         <v>-9.699999999999999</v>
       </c>
       <c r="AD21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE21" t="n">
         <v>30</v>
@@ -4223,16 +4290,16 @@
         <v>23</v>
       </c>
       <c r="AK21" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AL21" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AM21" t="n">
         <v>21</v>
       </c>
       <c r="AN21" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AO21" t="n">
         <v>29</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>3-29-2014-15</t>
+          <t>2015-03-29</t>
         </is>
       </c>
     </row>
@@ -4306,22 +4373,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E22" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F22" t="n">
         <v>32</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5679999999999999</v>
+        <v>0.5620000000000001</v>
       </c>
       <c r="H22" t="n">
         <v>48.4</v>
       </c>
       <c r="I22" t="n">
-        <v>38.6</v>
+        <v>38.5</v>
       </c>
       <c r="J22" t="n">
         <v>86.2</v>
@@ -4351,10 +4418,10 @@
         <v>12.6</v>
       </c>
       <c r="S22" t="n">
-        <v>35</v>
+        <v>34.9</v>
       </c>
       <c r="T22" t="n">
-        <v>47.6</v>
+        <v>47.5</v>
       </c>
       <c r="U22" t="n">
         <v>20.7</v>
@@ -4366,25 +4433,25 @@
         <v>7.3</v>
       </c>
       <c r="X22" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="Y22" t="n">
         <v>4.6</v>
       </c>
       <c r="Z22" t="n">
-        <v>22.2</v>
+        <v>22.3</v>
       </c>
       <c r="AA22" t="n">
         <v>20.2</v>
       </c>
       <c r="AB22" t="n">
-        <v>103.3</v>
+        <v>103.2</v>
       </c>
       <c r="AC22" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="AD22" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AE22" t="n">
         <v>12</v>
@@ -4396,13 +4463,13 @@
         <v>12</v>
       </c>
       <c r="AH22" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI22" t="n">
         <v>7</v>
       </c>
       <c r="AJ22" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AK22" t="n">
         <v>18</v>
@@ -4414,7 +4481,7 @@
         <v>15</v>
       </c>
       <c r="AN22" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AO22" t="n">
         <v>5</v>
@@ -4435,7 +4502,7 @@
         <v>1</v>
       </c>
       <c r="AU22" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AV22" t="n">
         <v>23</v>
@@ -4453,7 +4520,7 @@
         <v>29</v>
       </c>
       <c r="BA22" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="BB22" t="n">
         <v>8</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>3-29-2014-15</t>
+          <t>2015-03-29</t>
         </is>
       </c>
     </row>
@@ -4488,34 +4555,34 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E23" t="n">
         <v>22</v>
       </c>
       <c r="F23" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G23" t="n">
-        <v>0.301</v>
+        <v>0.297</v>
       </c>
       <c r="H23" t="n">
         <v>48.2</v>
       </c>
       <c r="I23" t="n">
-        <v>37.6</v>
+        <v>37.5</v>
       </c>
       <c r="J23" t="n">
-        <v>82.40000000000001</v>
+        <v>82.5</v>
       </c>
       <c r="K23" t="n">
-        <v>0.456</v>
+        <v>0.455</v>
       </c>
       <c r="L23" t="n">
         <v>6.8</v>
       </c>
       <c r="M23" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="N23" t="n">
         <v>0.35</v>
@@ -4524,22 +4591,22 @@
         <v>14.1</v>
       </c>
       <c r="P23" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.73</v>
+        <v>0.731</v>
       </c>
       <c r="R23" t="n">
-        <v>9.6</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="S23" t="n">
-        <v>31.5</v>
+        <v>31.6</v>
       </c>
       <c r="T23" t="n">
-        <v>41.1</v>
+        <v>41.3</v>
       </c>
       <c r="U23" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="V23" t="n">
         <v>14.9</v>
@@ -4551,22 +4618,22 @@
         <v>3.7</v>
       </c>
       <c r="Y23" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="Z23" t="n">
         <v>21.1</v>
       </c>
       <c r="AA23" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="AB23" t="n">
-        <v>96.09999999999999</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="AC23" t="n">
-        <v>-6</v>
+        <v>-6.2</v>
       </c>
       <c r="AD23" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="AE23" t="n">
         <v>26</v>
@@ -4611,28 +4678,28 @@
         <v>27</v>
       </c>
       <c r="AS23" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AT23" t="n">
         <v>27</v>
       </c>
       <c r="AU23" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AV23" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AW23" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AX23" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AY23" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="AZ23" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="BA23" t="n">
         <v>30</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>3-29-2014-15</t>
+          <t>2015-03-29</t>
         </is>
       </c>
     </row>
@@ -4670,16 +4737,16 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E24" t="n">
         <v>18</v>
       </c>
       <c r="F24" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G24" t="n">
-        <v>0.243</v>
+        <v>0.247</v>
       </c>
       <c r="H24" t="n">
         <v>48.3</v>
@@ -4688,28 +4755,28 @@
         <v>33.6</v>
       </c>
       <c r="J24" t="n">
-        <v>82.09999999999999</v>
+        <v>82</v>
       </c>
       <c r="K24" t="n">
         <v>0.409</v>
       </c>
       <c r="L24" t="n">
-        <v>8.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="M24" t="n">
-        <v>25.9</v>
+        <v>25.8</v>
       </c>
       <c r="N24" t="n">
         <v>0.323</v>
       </c>
       <c r="O24" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="P24" t="n">
-        <v>23.6</v>
+        <v>23.7</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.671</v>
+        <v>0.672</v>
       </c>
       <c r="R24" t="n">
         <v>11.6</v>
@@ -4721,34 +4788,34 @@
         <v>43</v>
       </c>
       <c r="U24" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="V24" t="n">
-        <v>17.9</v>
+        <v>18</v>
       </c>
       <c r="W24" t="n">
-        <v>9.800000000000001</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="X24" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="Y24" t="n">
         <v>5.4</v>
       </c>
       <c r="Z24" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="AA24" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="AB24" t="n">
         <v>91.40000000000001</v>
       </c>
       <c r="AC24" t="n">
-        <v>-8.9</v>
+        <v>-9</v>
       </c>
       <c r="AD24" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AE24" t="n">
         <v>28</v>
@@ -4781,7 +4848,7 @@
         <v>29</v>
       </c>
       <c r="AO24" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AP24" t="n">
         <v>11</v>
@@ -4808,7 +4875,7 @@
         <v>1</v>
       </c>
       <c r="AX24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY24" t="n">
         <v>26</v>
@@ -4817,7 +4884,7 @@
         <v>24</v>
       </c>
       <c r="BA24" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BB24" t="n">
         <v>30</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>3-29-2014-15</t>
+          <t>2015-03-29</t>
         </is>
       </c>
     </row>
@@ -4852,16 +4919,16 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E25" t="n">
         <v>38</v>
       </c>
       <c r="F25" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G25" t="n">
-        <v>0.514</v>
+        <v>0.521</v>
       </c>
       <c r="H25" t="n">
         <v>48.5</v>
@@ -4882,7 +4949,7 @@
         <v>25.5</v>
       </c>
       <c r="N25" t="n">
-        <v>0.345</v>
+        <v>0.346</v>
       </c>
       <c r="O25" t="n">
         <v>16.6</v>
@@ -4894,7 +4961,7 @@
         <v>0.764</v>
       </c>
       <c r="R25" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="S25" t="n">
         <v>32.5</v>
@@ -4903,7 +4970,7 @@
         <v>43.6</v>
       </c>
       <c r="U25" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="V25" t="n">
         <v>15.3</v>
@@ -4927,10 +4994,10 @@
         <v>103.8</v>
       </c>
       <c r="AC25" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AD25" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AE25" t="n">
         <v>14</v>
@@ -4948,7 +5015,7 @@
         <v>4</v>
       </c>
       <c r="AJ25" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AK25" t="n">
         <v>13</v>
@@ -4960,25 +5027,25 @@
         <v>9</v>
       </c>
       <c r="AN25" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AO25" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AP25" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AQ25" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AR25" t="n">
         <v>12</v>
       </c>
       <c r="AS25" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AT25" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AU25" t="n">
         <v>27</v>
@@ -4987,10 +5054,10 @@
         <v>26</v>
       </c>
       <c r="AW25" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AX25" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AY25" t="n">
         <v>5</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>3-29-2014-15</t>
+          <t>2015-03-29</t>
         </is>
       </c>
     </row>
@@ -5112,10 +5179,10 @@
         <v>4.4</v>
       </c>
       <c r="AD26" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="AE26" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AF26" t="n">
         <v>5</v>
@@ -5145,7 +5212,7 @@
         <v>8</v>
       </c>
       <c r="AO26" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AP26" t="n">
         <v>28</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>3-29-2014-15</t>
+          <t>2015-03-29</t>
         </is>
       </c>
     </row>
@@ -5294,7 +5361,7 @@
         <v>-3.8</v>
       </c>
       <c r="AD27" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="AE27" t="n">
         <v>25</v>
@@ -5336,7 +5403,7 @@
         <v>5</v>
       </c>
       <c r="AR27" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AS27" t="n">
         <v>9</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>3-29-2014-15</t>
+          <t>2015-03-29</t>
         </is>
       </c>
     </row>
@@ -5413,25 +5480,25 @@
         <v>48.8</v>
       </c>
       <c r="I28" t="n">
-        <v>38.8</v>
+        <v>38.7</v>
       </c>
       <c r="J28" t="n">
-        <v>83.90000000000001</v>
+        <v>83.7</v>
       </c>
       <c r="K28" t="n">
         <v>0.462</v>
       </c>
       <c r="L28" t="n">
-        <v>8.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="M28" t="n">
-        <v>22.6</v>
+        <v>22.7</v>
       </c>
       <c r="N28" t="n">
-        <v>0.362</v>
+        <v>0.366</v>
       </c>
       <c r="O28" t="n">
-        <v>17</v>
+        <v>16.9</v>
       </c>
       <c r="P28" t="n">
         <v>21.8</v>
@@ -5440,31 +5507,31 @@
         <v>0.777</v>
       </c>
       <c r="R28" t="n">
-        <v>9.9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="S28" t="n">
-        <v>33.9</v>
+        <v>33.8</v>
       </c>
       <c r="T28" t="n">
-        <v>43.7</v>
+        <v>43.6</v>
       </c>
       <c r="U28" t="n">
         <v>24.3</v>
       </c>
       <c r="V28" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="W28" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="X28" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="Y28" t="n">
         <v>4.5</v>
       </c>
       <c r="Z28" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="AA28" t="n">
         <v>19.9</v>
@@ -5473,10 +5540,10 @@
         <v>102.7</v>
       </c>
       <c r="AC28" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="AD28" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="AE28" t="n">
         <v>8</v>
@@ -5485,7 +5552,7 @@
         <v>7</v>
       </c>
       <c r="AG28" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AH28" t="n">
         <v>1</v>
@@ -5494,10 +5561,10 @@
         <v>5</v>
       </c>
       <c r="AJ28" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AL28" t="n">
         <v>12</v>
@@ -5506,7 +5573,7 @@
         <v>14</v>
       </c>
       <c r="AN28" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AO28" t="n">
         <v>14</v>
@@ -5521,19 +5588,19 @@
         <v>26</v>
       </c>
       <c r="AS28" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AT28" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AU28" t="n">
         <v>4</v>
       </c>
       <c r="AV28" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AW28" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AX28" t="n">
         <v>8</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>3-29-2014-15</t>
+          <t>2015-03-29</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5725,7 @@
         <v>2.9</v>
       </c>
       <c r="AD29" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AE29" t="n">
         <v>11</v>
@@ -5670,7 +5737,7 @@
         <v>11</v>
       </c>
       <c r="AH29" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AI29" t="n">
         <v>10</v>
@@ -5694,7 +5761,7 @@
         <v>4</v>
       </c>
       <c r="AP29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AQ29" t="n">
         <v>2</v>
@@ -5709,7 +5776,7 @@
         <v>26</v>
       </c>
       <c r="AU29" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AV29" t="n">
         <v>3</v>
@@ -5727,13 +5794,13 @@
         <v>17</v>
       </c>
       <c r="BA29" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BB29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BC29" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BD29" t="n">
         <v>10</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>3-29-2014-15</t>
+          <t>2015-03-29</t>
         </is>
       </c>
     </row>
@@ -5840,13 +5907,13 @@
         <v>-0.4</v>
       </c>
       <c r="AD30" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AE30" t="n">
         <v>18</v>
       </c>
       <c r="AF30" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AG30" t="n">
         <v>19</v>
@@ -5870,13 +5937,13 @@
         <v>17</v>
       </c>
       <c r="AN30" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AO30" t="n">
         <v>15</v>
       </c>
       <c r="AP30" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AQ30" t="n">
         <v>27</v>
@@ -5894,7 +5961,7 @@
         <v>30</v>
       </c>
       <c r="AV30" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AW30" t="n">
         <v>17</v>
@@ -5903,19 +5970,19 @@
         <v>4</v>
       </c>
       <c r="AY30" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ30" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BA30" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BB30" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BC30" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BD30" t="n">
         <v>10</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>3-29-2014-15</t>
+          <t>2015-03-29</t>
         </is>
       </c>
     </row>
@@ -5944,28 +6011,28 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E31" t="n">
         <v>41</v>
       </c>
       <c r="F31" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G31" t="n">
-        <v>0.554</v>
+        <v>0.5620000000000001</v>
       </c>
       <c r="H31" t="n">
         <v>48.5</v>
       </c>
       <c r="I31" t="n">
-        <v>38.1</v>
+        <v>38.2</v>
       </c>
       <c r="J31" t="n">
-        <v>82.5</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="K31" t="n">
-        <v>0.462</v>
+        <v>0.463</v>
       </c>
       <c r="L31" t="n">
         <v>6</v>
@@ -5974,16 +6041,16 @@
         <v>16.7</v>
       </c>
       <c r="N31" t="n">
-        <v>0.357</v>
+        <v>0.358</v>
       </c>
       <c r="O31" t="n">
-        <v>16.2</v>
+        <v>16</v>
       </c>
       <c r="P31" t="n">
-        <v>21.7</v>
+        <v>21.5</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.743</v>
+        <v>0.742</v>
       </c>
       <c r="R31" t="n">
         <v>10.4</v>
@@ -5995,43 +6062,43 @@
         <v>44.2</v>
       </c>
       <c r="U31" t="n">
-        <v>23.7</v>
+        <v>23.8</v>
       </c>
       <c r="V31" t="n">
         <v>14.9</v>
       </c>
       <c r="W31" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="X31" t="n">
         <v>4.6</v>
       </c>
       <c r="Y31" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="Z31" t="n">
         <v>21</v>
       </c>
       <c r="AA31" t="n">
-        <v>19.8</v>
+        <v>19.7</v>
       </c>
       <c r="AB31" t="n">
-        <v>98.3</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="AC31" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AD31" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AE31" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF31" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG31" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH31" t="n">
         <v>7</v>
@@ -6040,10 +6107,10 @@
         <v>9</v>
       </c>
       <c r="AJ31" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AK31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AL31" t="n">
         <v>26</v>
@@ -6055,10 +6122,10 @@
         <v>9</v>
       </c>
       <c r="AO31" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AP31" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AQ31" t="n">
         <v>22</v>
@@ -6067,7 +6134,7 @@
         <v>20</v>
       </c>
       <c r="AS31" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AT31" t="n">
         <v>10</v>
@@ -6076,16 +6143,16 @@
         <v>6</v>
       </c>
       <c r="AV31" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AW31" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AX31" t="n">
         <v>17</v>
       </c>
       <c r="AY31" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AZ31" t="n">
         <v>18</v>
@@ -6094,10 +6161,10 @@
         <v>21</v>
       </c>
       <c r="BB31" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BC31" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BD31" t="n">
         <v>10</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>3-29-2014-15</t>
+          <t>2015-03-29</t>
         </is>
       </c>
     </row>
